--- a/Docs/Laboratorio 5_Thais Tamaio(202022213).xlsx
+++ b/Docs/Laboratorio 5_Thais Tamaio(202022213).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Thais/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Thais/Desktop/Universidad/Segundo semestre/EDA/Laboratorios/Laboratorio 3/Reto1-G06/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7046704-B2DA-7E4A-9B57-D2BE18CA230F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5510A1-659D-3040-B8AB-8CB8082C5510}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -3119,6 +3119,10 @@
       </c:legendEntry>
       <c:legendEntry>
         <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:overlay val="0"/>
@@ -5882,7 +5886,7 @@
   </sheetPr>
   <dimension ref="B2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -5891,7 +5895,7 @@
     <col min="2" max="2" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
@@ -5911,7 +5915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="29">
         <v>1000</v>
       </c>
@@ -5931,7 +5935,7 @@
         <v>31.15</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="29">
         <v>2000</v>
       </c>
@@ -5951,7 +5955,7 @@
         <v>61.06</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="29">
         <v>4000</v>
       </c>
@@ -5971,7 +5975,7 @@
         <v>120.56</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B6" s="29">
         <v>8000</v>
       </c>
@@ -5991,7 +5995,7 @@
         <v>250.46</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="29">
         <v>16000</v>
       </c>
@@ -6011,7 +6015,7 @@
         <v>535.66999999999996</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="29">
         <v>32000</v>
       </c>
@@ -6027,7 +6031,7 @@
         <v>1140.4100000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="29">
         <v>64000</v>
       </c>
@@ -6043,7 +6047,7 @@
         <v>2445.7199999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="29">
         <v>128000</v>
       </c>
@@ -6059,7 +6063,7 @@
         <v>5232.6400000000003</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="29">
         <v>256000</v>
       </c>
@@ -6075,7 +6079,7 @@
         <v>11099.27</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="29">
         <v>375942</v>
       </c>
@@ -6091,7 +6095,7 @@
         <v>16921.8</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="33" t="s">
         <v>6</v>
       </c>
@@ -6111,7 +6115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="34">
         <v>1000</v>
       </c>
@@ -6131,7 +6135,7 @@
         <v>259.64</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="34">
         <v>2000</v>
       </c>
@@ -6151,7 +6155,7 @@
         <v>923.17</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="34">
         <v>4000</v>
       </c>
@@ -6171,7 +6175,7 @@
         <v>3626.66</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B18" s="29">
         <v>8000</v>
       </c>
@@ -6187,7 +6191,7 @@
         <v>14505.27</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B19" s="29">
         <v>16000</v>
       </c>
@@ -6201,7 +6205,7 @@
         <v>59039.22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B20" s="29">
         <v>32000</v>
       </c>
@@ -6213,7 +6217,7 @@
         <v>238846.93</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B21" s="29">
         <v>64000</v>
       </c>
@@ -6616,8 +6620,8 @@
   </sheetPr>
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
